--- a/src/attributions/attributions_ig_traj_245.xlsx
+++ b/src/attributions/attributions_ig_traj_245.xlsx
@@ -1004,49 +1004,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2462445184423573</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>-0.2960463733789755</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03394074355521719</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.5268038223632835</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.009397292535912118</v>
+        <v>0.03699289732677558</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2401899660577776</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>-0.2316772413073387</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.03578906854531848</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.4651552248599837</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.04527481208422575</v>
+        <v>0.07059064002808547</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.007623774931979788</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>-0.122620650268001</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.01859700103676705</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.04448183281658329</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07021820710132794</v>
+        <v>-0.03226813065433129</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1079,79 +1079,79 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.00995482407242569</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>-0.1127687417990083</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02315230252418447</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0.03456545275427186</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.03286370323757955</v>
+        <v>-0.02316182269749729</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0492125659187482</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0.08438974793801785</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.01442376467825541</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.02922921718039302</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.02093715136152854</v>
+        <v>0.1018657185731441</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1225099447234743</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0.3121402356021427</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.05390747752742982</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0</v>
+        <v>0.2377078252830225</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.02911464792742147</v>
+        <v>0.01174651981495749</v>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
@@ -1160,55 +1160,55 @@
         <v>-0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.04888816619978299</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0.1106539185139866</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.006220127592094934</v>
+        <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>0.156656338322448</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.02335423118759484</v>
+        <v>0.1157969281835891</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.01157761747968498</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0.02629712294032379</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01273802563833789</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0</v>
+        <v>0.01306663470683733</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.04871651731213345</v>
+        <v>-0.1700808674577257</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>-0</v>
@@ -1217,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.09410681065518976</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0.1489505816804149</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.03332220728548413</v>
+        <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.0761619560969035</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.01488678654173978</v>
+        <v>-0.06191889759765432</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
@@ -1244,49 +1244,49 @@
         <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.04971249219780807</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>0.0614294541186783</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.007271928130322052</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0</v>
+        <v>-0.09854279758783759</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.009367012712575227</v>
+        <v>0.01933217163557499</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.01583309906876589</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>0.009673849950292334</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.004776454441066973</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-0.00816328791996045</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.009957537153620095</v>
+        <v>0.03468253144229033</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,28 +1295,28 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
         <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.04473523251981511</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>0.07565791447210174</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.009781092774672498</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>-0.09168833644779097</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.008192515625898834</v>
+        <v>0.007307234473590525</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB2" t="n">
         <v>-0</v>
@@ -1328,25 +1328,25 @@
         <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.000964330455852108</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.2203399921105718</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.009736221174379891</v>
+        <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0.06479944268121397</v>
       </c>
       <c r="DI2" t="n">
-        <v>8.882972399421891e-05</v>
+        <v>-0.01360764237365175</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
         <v>-0</v>
@@ -1355,19 +1355,19 @@
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.007708910698365298</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.006747358222326433</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.01234439069470944</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.02854774387101981</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.001264138269224872</v>
+        <v>-0.04536958010288934</v>
       </c>
       <c r="DS2" t="n">
         <v>-0</v>
@@ -1376,25 +1376,25 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
         <v>-0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.01013315885161572</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>0.07493758384032732</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.008754117265745242</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.08883239768176981</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.004374118153803065</v>
+        <v>0.04430560910768386</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
@@ -1403,28 +1403,28 @@
         <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0678655459850341</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>0.04405865593471068</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.008627607580736016</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>0.1233349463462246</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01364540748612325</v>
+        <v>-0.04718535020630139</v>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1433,76 +1433,76 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.01947366963387892</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0.08545463168014399</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.01309078315248833</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.04345999815872956</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.009260077560044558</v>
+        <v>0.008592766471658466</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.04504705292386859</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>0.07585134005944467</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.008692591873714146</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0</v>
+        <v>-0.09040075738863187</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.005487633056317719</v>
+        <v>0.01667877379403799</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.04234806083117446</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>0.02409076984794263</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.005414658543143156</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>-0.0184632593962781</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.02265581796199496</v>
+        <v>-0.004901368697501501</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
@@ -1511,52 +1511,52 @@
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.03314906307409794</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>0.04406105770087931</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.01479843153897335</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0</v>
+        <v>-0.05970442660625477</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.004650222579231394</v>
+        <v>-0.00934797519253004</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.03135898309914052</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.03240683425055917</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.0139688116276877</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>0.04675043660985335</v>
       </c>
       <c r="GC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD2" t="n">
         <v>0</v>
